--- a/3.xlsx
+++ b/3.xlsx
@@ -60,7 +60,7 @@
     <t>Period</t>
   </si>
   <si>
-    <t>2002-Q1</t>
+    <t>2001-Q2</t>
   </si>
   <si>
     <t>Dimension</t>
@@ -173,430 +173,430 @@
     <t>Annual change (%)</t>
   </si>
   <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
+    <t>2000-Q4</t>
+  </si>
+  <si>
+    <t>2001-Q1</t>
   </si>
   <si>
     <t>Borrowers outside United States</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.3P.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Of which: emerging market and developing economies</t>
   </si>
   <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.4T.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Africa and Middle East</t>
   </si>
   <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.4W.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.SA.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.ZA.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Emerging Asia and Pacific</t>
   </si>
   <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.4Y.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.CN.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Chinese Taipei</t>
   </si>
   <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.TW.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.IN.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.ID.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Korea</t>
   </si>
   <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.KR.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.MY.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Emerging Europe</t>
   </si>
   <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.3C.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.RU.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Türkiye</t>
   </si>
   <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.TR.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Latin America</t>
   </si>
   <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.4U.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.AR.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.BR.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.CL.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2002-Q1</t>
+    <t>Q.USD.MX.N.A.I.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2001-Q2</t>
   </si>
   <si>
     <t>By instrument</t>
@@ -605,118 +605,118 @@
     <t>Bank loans</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2002-Q1</t>
+    <t>Q.USD.3P.N.B.I.G.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2001-Q2</t>
   </si>
   <si>
     <t>Debt securities issues</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2002-Q1</t>
+    <t>Q.USD.3P.N.A.I.D.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2001-Q2</t>
   </si>
   <si>
     <t>Of which: non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2002-Q1</t>
+    <t>Q.USD.3P.P.A.I.D.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2001-Q2</t>
   </si>
   <si>
     <t>Memo: Borrowers in United States</t>
@@ -725,43 +725,43 @@
     <t>Non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.US.P.A.A.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2002-Q1</t>
+    <t>Q.USD.US.P.A.A.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2001-Q2</t>
   </si>
   <si>
     <t>Of which: government</t>
   </si>
   <si>
-    <t>Q.USD.US.G.A.A.B.USD.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2002-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2001-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2001-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2002-Q1</t>
+    <t>Q.USD.US.G.A.A.B.USD.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2001-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2000-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2001-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2001-Q2</t>
   </si>
 </sst>
 </file>
@@ -1418,22 +1418,22 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>2568.8767</v>
+        <v>2491.669699</v>
       </c>
       <c r="C3">
-        <v>2608.451674</v>
+        <v>2579.801597</v>
       </c>
       <c r="D3">
-        <v>2614.712534</v>
+        <v>2604.091725</v>
       </c>
       <c r="E3">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>0.9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1441,22 +1441,22 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>969.014121</v>
+        <v>979.011438</v>
       </c>
       <c r="C4">
-        <v>974.909896</v>
+        <v>991.047858</v>
       </c>
       <c r="D4">
-        <v>960.6880169999999</v>
+        <v>981.600208</v>
       </c>
       <c r="E4">
-        <v>-0.6</v>
+        <v>1.4</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>3.4</v>
       </c>
       <c r="G4">
-        <v>-2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1464,22 +1464,22 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>119.159862</v>
+        <v>125.576416</v>
       </c>
       <c r="C5">
-        <v>125.534154</v>
+        <v>122.267372</v>
       </c>
       <c r="D5">
-        <v>125.201703</v>
+        <v>120.085911</v>
       </c>
       <c r="E5">
-        <v>-1.5</v>
+        <v>-5.8</v>
       </c>
       <c r="F5">
-        <v>-2.7</v>
+        <v>-1.4</v>
       </c>
       <c r="G5">
-        <v>-0.3</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1487,22 +1487,22 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>9.624000000000001</v>
+        <v>10.562</v>
       </c>
       <c r="C6">
-        <v>9.987</v>
+        <v>10.062</v>
       </c>
       <c r="D6">
-        <v>9.782999999999999</v>
+        <v>9.411</v>
       </c>
       <c r="E6">
-        <v>-13</v>
+        <v>-18.3</v>
       </c>
       <c r="F6">
-        <v>-5.8</v>
+        <v>-14.1</v>
       </c>
       <c r="G6">
-        <v>-3.2</v>
+        <v>-16.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1510,22 +1510,22 @@
         <v>67</v>
       </c>
       <c r="B7">
-        <v>6.3913</v>
+        <v>7.10031</v>
       </c>
       <c r="C7">
-        <v>6.2413</v>
+        <v>7.231637</v>
       </c>
       <c r="D7">
-        <v>6.0203</v>
+        <v>6.996637</v>
       </c>
       <c r="E7">
-        <v>-12.8</v>
+        <v>11.1</v>
       </c>
       <c r="F7">
-        <v>-12.4</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>-17</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1533,22 +1533,22 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <v>304.19946</v>
+        <v>309.398093</v>
       </c>
       <c r="C8">
-        <v>310.526243</v>
+        <v>310.268124</v>
       </c>
       <c r="D8">
-        <v>303.483964</v>
+        <v>310.223247</v>
       </c>
       <c r="E8">
-        <v>-2.2</v>
+        <v>-4.4</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
       <c r="G8">
-        <v>-2.6</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1556,22 +1556,22 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>13.87</v>
+        <v>13.881</v>
       </c>
       <c r="C9">
-        <v>13.545</v>
+        <v>13.711</v>
       </c>
       <c r="D9">
-        <v>12.977</v>
+        <v>17.525</v>
       </c>
       <c r="E9">
-        <v>-2.8</v>
+        <v>-18.4</v>
       </c>
       <c r="F9">
-        <v>-2.6</v>
+        <v>-18.8</v>
       </c>
       <c r="G9">
-        <v>-5.5</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1579,22 +1579,22 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>24.21164</v>
+        <v>23.29098</v>
       </c>
       <c r="C10">
-        <v>24.84415</v>
+        <v>24.3048</v>
       </c>
       <c r="D10">
-        <v>24.96237</v>
+        <v>24.88733</v>
       </c>
       <c r="E10">
-        <v>5.6</v>
+        <v>-5</v>
       </c>
       <c r="F10">
-        <v>6.6</v>
+        <v>-10.7</v>
       </c>
       <c r="G10">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1602,22 +1602,22 @@
         <v>95</v>
       </c>
       <c r="B11">
-        <v>8.348839999999999</v>
+        <v>9.53684</v>
       </c>
       <c r="C11">
-        <v>7.89884</v>
+        <v>9.133139999999999</v>
       </c>
       <c r="D11">
-        <v>7.59584</v>
+        <v>8.83784</v>
       </c>
       <c r="E11">
-        <v>-16.7</v>
+        <v>-10.3</v>
       </c>
       <c r="F11">
-        <v>-17.3</v>
+        <v>-3.9</v>
       </c>
       <c r="G11">
-        <v>-17.1</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1625,22 +1625,22 @@
         <v>102</v>
       </c>
       <c r="B12">
-        <v>13.29</v>
+        <v>15.554</v>
       </c>
       <c r="C12">
-        <v>12.904</v>
+        <v>14.867</v>
       </c>
       <c r="D12">
-        <v>11.913</v>
+        <v>13.983</v>
       </c>
       <c r="E12">
-        <v>-24.4</v>
+        <v>-21.4</v>
       </c>
       <c r="F12">
-        <v>-17.1</v>
+        <v>-23.1</v>
       </c>
       <c r="G12">
-        <v>-19.9</v>
+        <v>-24.9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1648,22 +1648,22 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>33.638749</v>
+        <v>28.333755</v>
       </c>
       <c r="C13">
-        <v>34.155582</v>
+        <v>31.719651</v>
       </c>
       <c r="D13">
-        <v>37.873161</v>
+        <v>32.312328</v>
       </c>
       <c r="E13">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="F13">
-        <v>20.4</v>
+        <v>8.4</v>
       </c>
       <c r="G13">
-        <v>19.4</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1671,22 +1671,22 @@
         <v>116</v>
       </c>
       <c r="B14">
-        <v>15.450656</v>
+        <v>13.788457</v>
       </c>
       <c r="C14">
-        <v>15.357296</v>
+        <v>13.787491</v>
       </c>
       <c r="D14">
-        <v>16.367316</v>
+        <v>14.617723</v>
       </c>
       <c r="E14">
-        <v>14.7</v>
+        <v>6.8</v>
       </c>
       <c r="F14">
+        <v>5.5</v>
+      </c>
+      <c r="G14">
         <v>11.2</v>
-      </c>
-      <c r="G14">
-        <v>18.6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1694,22 +1694,22 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>105.461499</v>
+        <v>106.570692</v>
       </c>
       <c r="C15">
-        <v>104.756034</v>
+        <v>107.177449</v>
       </c>
       <c r="D15">
-        <v>107.061271</v>
+        <v>104.565691</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>26.7</v>
       </c>
       <c r="F15">
-        <v>-0.4</v>
+        <v>28.8</v>
       </c>
       <c r="G15">
-        <v>1.3</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1717,22 +1717,22 @@
         <v>130</v>
       </c>
       <c r="B16">
-        <v>44.57999</v>
+        <v>44.61399</v>
       </c>
       <c r="C16">
-        <v>44.61599</v>
+        <v>43.78299</v>
       </c>
       <c r="D16">
-        <v>44.79399</v>
+        <v>44.06799</v>
       </c>
       <c r="E16">
-        <v>0.4</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="F16">
-        <v>-0.1</v>
+        <v>84.8</v>
       </c>
       <c r="G16">
-        <v>2.2</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1740,22 +1740,22 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>32.357906</v>
+        <v>32.282649</v>
       </c>
       <c r="C17">
-        <v>33.100889</v>
+        <v>31.582468</v>
       </c>
       <c r="D17">
-        <v>35.194133</v>
+        <v>32.104938</v>
       </c>
       <c r="E17">
-        <v>17.1</v>
+        <v>39.9</v>
       </c>
       <c r="F17">
-        <v>9.9</v>
+        <v>20.3</v>
       </c>
       <c r="G17">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1763,22 +1763,22 @@
         <v>144</v>
       </c>
       <c r="B18">
-        <v>440.1933</v>
+        <v>437.466236</v>
       </c>
       <c r="C18">
-        <v>434.093465</v>
+        <v>451.334914</v>
       </c>
       <c r="D18">
-        <v>424.941079</v>
+        <v>446.725359</v>
       </c>
       <c r="E18">
-        <v>-0.1</v>
+        <v>2.7</v>
       </c>
       <c r="F18">
-        <v>-1.3</v>
+        <v>4.3</v>
       </c>
       <c r="G18">
-        <v>-4.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1786,22 +1786,22 @@
         <v>151</v>
       </c>
       <c r="B19">
-        <v>81.181051</v>
+        <v>70.17434299999999</v>
       </c>
       <c r="C19">
-        <v>81.455511</v>
+        <v>72.45505799999999</v>
       </c>
       <c r="D19">
-        <v>80.82764400000001</v>
+        <v>80.451781</v>
       </c>
       <c r="E19">
-        <v>13.3</v>
+        <v>3.7</v>
       </c>
       <c r="F19">
-        <v>16.1</v>
+        <v>5.6</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1809,22 +1809,22 @@
         <v>158</v>
       </c>
       <c r="B20">
-        <v>83.302375</v>
+        <v>87.022068</v>
       </c>
       <c r="C20">
-        <v>80.66429599999999</v>
+        <v>89.245846</v>
       </c>
       <c r="D20">
-        <v>83.537025</v>
+        <v>85.32290500000001</v>
       </c>
       <c r="E20">
-        <v>-5.5</v>
+        <v>-1</v>
       </c>
       <c r="F20">
-        <v>-7.3</v>
+        <v>0.3</v>
       </c>
       <c r="G20">
-        <v>-6.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1832,22 +1832,22 @@
         <v>165</v>
       </c>
       <c r="B21">
-        <v>20.43948</v>
+        <v>20.29235</v>
       </c>
       <c r="C21">
-        <v>21.18148</v>
+        <v>20.60335</v>
       </c>
       <c r="D21">
-        <v>20.99448</v>
+        <v>21.03935</v>
       </c>
       <c r="E21">
-        <v>-2.8</v>
+        <v>-1.3</v>
       </c>
       <c r="F21">
-        <v>4.4</v>
+        <v>-1.2</v>
       </c>
       <c r="G21">
-        <v>1.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1855,22 +1855,22 @@
         <v>172</v>
       </c>
       <c r="B22">
-        <v>94.71917500000001</v>
+        <v>96.17424200000001</v>
       </c>
       <c r="C22">
-        <v>91.273082</v>
+        <v>102.259999</v>
       </c>
       <c r="D22">
-        <v>93.63020299999999</v>
+        <v>98.853345</v>
       </c>
       <c r="E22">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="F22">
-        <v>-5.1</v>
+        <v>6.7</v>
       </c>
       <c r="G22">
-        <v>-8.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1883,22 +1883,22 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>2568.8767</v>
+        <v>2491.669699</v>
       </c>
       <c r="C24">
-        <v>2608.451674</v>
+        <v>2579.801597</v>
       </c>
       <c r="D24">
-        <v>2614.712534</v>
+        <v>2604.091725</v>
       </c>
       <c r="E24">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>0.9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1906,22 +1906,22 @@
         <v>180</v>
       </c>
       <c r="B25">
-        <v>1311.600928</v>
+        <v>1297.562605</v>
       </c>
       <c r="C25">
-        <v>1345.589116</v>
+        <v>1350.701328</v>
       </c>
       <c r="D25">
-        <v>1322.695791</v>
+        <v>1358.554894</v>
       </c>
       <c r="E25">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="F25">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="G25">
-        <v>-2.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1929,22 +1929,22 @@
         <v>187</v>
       </c>
       <c r="B26">
-        <v>1257.275772</v>
+        <v>1194.107094</v>
       </c>
       <c r="C26">
-        <v>1262.862558</v>
+        <v>1229.100268</v>
       </c>
       <c r="D26">
-        <v>1292.016742</v>
+        <v>1245.536831</v>
       </c>
       <c r="E26">
-        <v>7.7</v>
+        <v>13.9</v>
       </c>
       <c r="F26">
-        <v>5.8</v>
+        <v>13.3</v>
       </c>
       <c r="G26">
-        <v>5.1</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1952,22 +1952,22 @@
         <v>194</v>
       </c>
       <c r="B27">
-        <v>882.016628</v>
+        <v>851.900108</v>
       </c>
       <c r="C27">
-        <v>884.060816</v>
+        <v>869.3925850000001</v>
       </c>
       <c r="D27">
-        <v>901.273498</v>
+        <v>876.844145</v>
       </c>
       <c r="E27">
-        <v>5.3</v>
+        <v>12.4</v>
       </c>
       <c r="F27">
-        <v>3.8</v>
+        <v>10.8</v>
       </c>
       <c r="G27">
-        <v>3.7</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1975,22 +1975,22 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>969.014121</v>
+        <v>979.011438</v>
       </c>
       <c r="C28">
-        <v>974.909896</v>
+        <v>991.047858</v>
       </c>
       <c r="D28">
-        <v>960.6880169999999</v>
+        <v>981.600208</v>
       </c>
       <c r="E28">
-        <v>-0.6</v>
+        <v>1.4</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>3.4</v>
       </c>
       <c r="G28">
-        <v>-2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1998,22 +1998,22 @@
         <v>180</v>
       </c>
       <c r="B29">
-        <v>556.695723</v>
+        <v>571.8178360000001</v>
       </c>
       <c r="C29">
-        <v>563.552133</v>
+        <v>576.680377</v>
       </c>
       <c r="D29">
-        <v>539.239457</v>
+        <v>566.448884</v>
       </c>
       <c r="E29">
-        <v>-1.6</v>
+        <v>-5.5</v>
       </c>
       <c r="F29">
-        <v>-2.4</v>
+        <v>-1.3</v>
       </c>
       <c r="G29">
-        <v>-5.7</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2021,22 +2021,22 @@
         <v>187</v>
       </c>
       <c r="B30">
-        <v>412.318398</v>
+        <v>407.193602</v>
       </c>
       <c r="C30">
-        <v>411.357763</v>
+        <v>414.367481</v>
       </c>
       <c r="D30">
-        <v>421.44856</v>
+        <v>415.151324</v>
       </c>
       <c r="E30">
-        <v>0.8</v>
+        <v>12.7</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>10.6</v>
       </c>
       <c r="G30">
-        <v>1.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2044,22 +2044,22 @@
         <v>194</v>
       </c>
       <c r="B31">
-        <v>383.428643</v>
+        <v>376.910972</v>
       </c>
       <c r="C31">
-        <v>383.871577</v>
+        <v>384.431024</v>
       </c>
       <c r="D31">
-        <v>394.511749</v>
+        <v>385.552146</v>
       </c>
       <c r="E31">
-        <v>0.8</v>
+        <v>13.8</v>
       </c>
       <c r="F31">
-        <v>1.8</v>
+        <v>11.7</v>
       </c>
       <c r="G31">
-        <v>2.6</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2072,22 +2072,22 @@
         <v>220</v>
       </c>
       <c r="B33">
-        <v>19929.841107</v>
+        <v>19076.33409</v>
       </c>
       <c r="C33">
-        <v>20162.462793</v>
+        <v>19309.380513</v>
       </c>
       <c r="D33">
-        <v>20456.225157</v>
+        <v>19552.671001</v>
       </c>
       <c r="E33">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="F33">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="G33">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2095,22 +2095,22 @@
         <v>227</v>
       </c>
       <c r="B34">
-        <v>5367.732</v>
+        <v>5287.917</v>
       </c>
       <c r="C34">
-        <v>5448.587</v>
+        <v>5352.462</v>
       </c>
       <c r="D34">
-        <v>5485.809</v>
+        <v>5278.636</v>
       </c>
       <c r="E34">
-        <v>0.6</v>
+        <v>-4.7</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>-2.7</v>
       </c>
       <c r="G34">
-        <v>2.5</v>
+        <v>-2.1</v>
       </c>
     </row>
   </sheetData>
